--- a/tests/output/2_CBA Business Transaction Account #2825_ALLSummary_output.xlsx
+++ b/tests/output/2_CBA Business Transaction Account #2825_ALLSummary_output.xlsx
@@ -7,12 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="All_Text" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Table_1_Page_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Table_2_Page_2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Table_3_Page_3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Table_4_Page_4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Table_5_Page_5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="All_Text_Fallback" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table_pdfplumber_1_P1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Table_pdfplumber_2_P2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Table_pdfplumber_3_P3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Table_pdfplumber_4_P4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Table_pdfplumber_5_P5" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,7 +474,7 @@
 22263774
 Created 04/04/25 02:26pm (Sydney/Melbourne time)
 While this letter is accurate at the time it’s produced,
-we’re not responsible for any reliance on this information. Transaction Summary v1.0.5\n\n--- End of Page 1 ---\n\nAccount Number 062597 11142825
+we’re not responsible for any reliance on this information. Transaction Summary v1.0.5Account Number 062597 11142825
 Page 2 of 6
 Date Transaction details Amount Balance
 25 Feb 2025 Fast Transfer From MR ADITYA BHATIA $110.00 $1,375.83
@@ -525,7 +525,7 @@
 Karli lesson
 Created 04/04/25 02:26pm (Sydney/Melbourne time)
 While this letter is accurate at the time it’s produced,
-we’re not responsible for any reliance on this information. Transaction Summary v1.0.5\n\n--- End of Page 2 ---\n\nAccount Number 062597 11142825
+we’re not responsible for any reliance on this information. Transaction Summary v1.0.5Account Number 062597 11142825
 Page 3 of 6
 Date Transaction details Amount Balance
 03 Mar 2025 Fast Transfer From Jeremiah K Kumar $260.00 $3,707.83
@@ -578,7 +578,7 @@
 Refund from KS Driving school
 Created 04/04/25 02:26pm (Sydney/Melbourne time)
 While this letter is accurate at the time it’s produced,
-we’re not responsible for any reliance on this information. Transaction Summary v1.0.5\n\n--- End of Page 3 ---\n\nAccount Number 062597 11142825
+we’re not responsible for any reliance on this information. Transaction Summary v1.0.5Account Number 062597 11142825
 Page 4 of 6
 Date Transaction details Amount Balance
 11 Mar 2025 Transfer To N NAREDDY -$150.00 $3,723.03
@@ -629,7 +629,7 @@
 Shuvo
 Created 04/04/25 02:26pm (Sydney/Melbourne time)
 While this letter is accurate at the time it’s produced,
-we’re not responsible for any reliance on this information. Transaction Summary v1.0.5\n\n--- End of Page 4 ---\n\nAccount Number 062597 11142825
+we’re not responsible for any reliance on this information. Transaction Summary v1.0.5Account Number 062597 11142825
 Page 5 of 6
 Date Transaction details Amount Balance
 30 Mar 2025 Fast Transfer From WAHAB DIN $20.00 $4,786.22
@@ -664,7 +664,7 @@
 The CommBank Team.
 Created 04/04/25 02:26pm (Sydney/Melbourne time)
 While this letter is accurate at the time it’s produced,
-we’re not responsible for any reliance on this information. Transaction Summary v1.0.5\n\n--- End of Page 5 ---\n\n</t>
+we’re not responsible for any reliance on this information. Transaction Summary v1.0.5</t>
         </is>
       </c>
     </row>
